--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2671675.061832507</v>
+        <v>2665953.449864622</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836234</v>
+        <v>6654055.582836239</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095097</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>128.0041052504326</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>299.3479174184852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>127.611434929849</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>162.3364906735235</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>144.2181094543445</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>18.63953110817427</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>92.00803688215818</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>4.440065804380572</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>5.983388191319379</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>198.6924235154196</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>224.9913792784364</v>
+        <v>194.0270836661628</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873199</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>140.531466978549</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>36.29983477876754</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653453</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="C16" t="n">
-        <v>85.74862845463662</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1903,7 +1903,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>87.22506181228437</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873199</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>107.8704128139745</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>54.57191907271176</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>123.5007470589059</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -2733,7 +2733,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>52.1626454247129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>208.5297823800585</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>18.26879610204007</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3009,16 +3009,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>174.4769695869693</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>195.5188969500064</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>40.13771612386414</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>45.2808584968836</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>90.41948680756549</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3717,19 +3717,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>134.3879184575346</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>90.41948680756549</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3957,7 +3957,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>18.5941291828003</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4140,22 +4140,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>89.8683054686072</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>52.23490948285998</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1964.838184214438</v>
+        <v>1860.708406770827</v>
       </c>
       <c r="C2" t="n">
-        <v>1595.875667274027</v>
+        <v>1491.745889830415</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>1133.480191223665</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>747.6919386254203</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>336.7060338358128</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2267.209817970484</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>2267.209817970484</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>2267.209817970484</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>1964.838184214438</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>2469.840903686824</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>2340.940464363744</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>2340.940464363744</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W4" t="n">
-        <v>2340.940464363744</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X4" t="n">
-        <v>2340.940464363744</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>2340.940464363744</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>589.4492616060802</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C5" t="n">
-        <v>220.4867446656685</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D5" t="n">
-        <v>74.81188663097703</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2678.321281818046</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2502.143794132216</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2502.143794132216</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2502.143794132216</v>
       </c>
       <c r="V5" t="n">
-        <v>2092.422847177208</v>
+        <v>2502.143794132216</v>
       </c>
       <c r="W5" t="n">
-        <v>1739.654191907093</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="X5" t="n">
-        <v>1366.188433646014</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="Y5" t="n">
-        <v>976.0491016702019</v>
+        <v>2149.375138862102</v>
       </c>
     </row>
     <row r="6">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>541.9956044222747</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940987</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>430.0992512117056</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>283.2093037137952</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>283.2093037137952</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>723.6440692525144</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1405.321187657107</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2496.44967332588</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2496.44967332588</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2165.386785982309</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2165.386785982309</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>1791.921027721229</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1791.921027721229</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610024</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610024</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>211.6913543878343</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X10" t="n">
-        <v>211.6913543878343</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001592</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>806.1613418786371</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1670.680157531992</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.328657580449</v>
+        <v>2649.23046036182</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807095</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5138,16 +5138,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1023.336921276364</v>
+        <v>849.4617675965557</v>
       </c>
       <c r="C13" t="n">
-        <v>854.4007383484569</v>
+        <v>707.5107908505465</v>
       </c>
       <c r="D13" t="n">
-        <v>704.2840989361212</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="E13" t="n">
-        <v>556.371005353728</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F13" t="n">
         <v>409.4810578558177</v>
@@ -5193,16 +5193,16 @@
         <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1866.513008862231</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U13" t="n">
-        <v>1577.410141987875</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V13" t="n">
-        <v>1540.743642211342</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W13" t="n">
-        <v>1251.326472174381</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="X13" t="n">
-        <v>1023.336921276364</v>
+        <v>1251.902811570325</v>
       </c>
       <c r="Y13" t="n">
-        <v>1023.336921276364</v>
+        <v>1031.110232426795</v>
       </c>
     </row>
     <row r="14">
@@ -5260,55 +5260,55 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
         <v>4208.252829604874</v>
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5390,7 +5390,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>742.0073655524383</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C16" t="n">
-        <v>655.3925893356336</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D16" t="n">
-        <v>655.3925893356336</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E16" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F16" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1734.576850674229</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1190.789495593986</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>1190.789495593986</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X16" t="n">
-        <v>962.7999446959684</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y16" t="n">
-        <v>742.0073655524383</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5515,19 +5515,19 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2593.249184644074</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>3573.001456870721</v>
       </c>
       <c r="O17" t="n">
         <v>4075.973927750058</v>
@@ -5548,19 +5548,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="18">
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>393.5907674431232</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C19" t="n">
-        <v>393.5907674431232</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D19" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E19" t="n">
         <v>95.56103444839441</v>
@@ -5700,25 +5700,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>481.6968904858347</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143013</v>
@@ -5740,10 +5740,10 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001578</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5752,28 +5752,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>888.4135721382777</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L20" t="n">
-        <v>1339.447785386687</v>
+        <v>1682.725100522031</v>
       </c>
       <c r="M20" t="n">
-        <v>2317.998088216515</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N20" t="n">
-        <v>3297.750360443162</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O20" t="n">
-        <v>3800.722831322499</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
         <v>4778.05172241972</v>
@@ -5785,19 +5785,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8133219477185</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C22" t="n">
-        <v>803.8133219477185</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D22" t="n">
-        <v>653.6966825353827</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E22" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839441</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1757.552995918823</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1757.552995918823</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U22" t="n">
-        <v>1757.552995918823</v>
+        <v>1737.059203485665</v>
       </c>
       <c r="V22" t="n">
-        <v>1502.868507712936</v>
+        <v>1482.374715279778</v>
       </c>
       <c r="W22" t="n">
-        <v>1213.451337675976</v>
+        <v>1192.957545242817</v>
       </c>
       <c r="X22" t="n">
-        <v>985.4617867779582</v>
+        <v>964.9679943448</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.4617867779582</v>
+        <v>744.1754152012699</v>
       </c>
     </row>
     <row r="23">
@@ -5995,13 +5995,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O23" t="n">
         <v>4075.973927750058</v>
@@ -6044,34 +6044,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L24" t="n">
         <v>794.2006632320242</v>
@@ -6086,16 +6086,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>824.3287722635405</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C25" t="n">
-        <v>655.3925893356336</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D25" t="n">
-        <v>655.3925893356336</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E25" t="n">
-        <v>507.4794957532405</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F25" t="n">
-        <v>360.5895482553301</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G25" t="n">
-        <v>192.886711630049</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H25" t="n">
         <v>192.886711630049</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1674.827124689058</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1674.827124689058</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1420.142636483171</v>
+        <v>1198.664949048203</v>
       </c>
       <c r="W25" t="n">
-        <v>1130.72546644621</v>
+        <v>909.2477790112422</v>
       </c>
       <c r="X25" t="n">
-        <v>1130.72546644621</v>
+        <v>909.2477790112422</v>
       </c>
       <c r="Y25" t="n">
-        <v>1005.97723709378</v>
+        <v>688.4551998677121</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551604</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
@@ -6244,34 +6244,34 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>725.3071882816349</v>
+        <v>825.859557377715</v>
       </c>
       <c r="C28" t="n">
-        <v>556.371005353728</v>
+        <v>656.9233744498081</v>
       </c>
       <c r="D28" t="n">
-        <v>556.371005353728</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E28" t="n">
-        <v>556.371005353728</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F28" t="n">
-        <v>409.4810578558177</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6411,25 +6411,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U28" t="n">
-        <v>1490.201425668013</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V28" t="n">
-        <v>1235.516937462126</v>
+        <v>1745.707322286463</v>
       </c>
       <c r="W28" t="n">
-        <v>946.0997674251651</v>
+        <v>1456.290152249502</v>
       </c>
       <c r="X28" t="n">
-        <v>946.0997674251651</v>
+        <v>1228.300601351485</v>
       </c>
       <c r="Y28" t="n">
-        <v>725.3071882816349</v>
+        <v>1007.508022207955</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551604</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
@@ -6469,46 +6469,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>806.069814334827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="C31" t="n">
-        <v>637.1336314069201</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D31" t="n">
-        <v>487.0169919945844</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E31" t="n">
-        <v>339.1038984121913</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1937.890136708704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1746.20425253553</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1524.437637105056</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384228</v>
+        <v>1235.3347702307</v>
       </c>
       <c r="V31" t="n">
-        <v>1163.957642384228</v>
+        <v>980.6502820248129</v>
       </c>
       <c r="W31" t="n">
-        <v>1163.957642384228</v>
+        <v>691.2331119878522</v>
       </c>
       <c r="X31" t="n">
-        <v>1163.957642384228</v>
+        <v>463.2435610898349</v>
       </c>
       <c r="Y31" t="n">
-        <v>987.7182791650667</v>
+        <v>242.4509819463048</v>
       </c>
     </row>
     <row r="32">
@@ -6700,25 +6700,25 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>750.1800661608906</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1614.698881814245</v>
+        <v>1586.925993846823</v>
       </c>
       <c r="M32" t="n">
-        <v>2593.249184644074</v>
+        <v>2120.457898518747</v>
       </c>
       <c r="N32" t="n">
-        <v>3573.001456870721</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q32" t="n">
         <v>4719.034655862918</v>
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
@@ -6785,7 +6785,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6812,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839441</v>
@@ -6885,25 +6885,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>801.6097761177758</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>801.6097761177758</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>801.6097761177758</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6919,10 +6919,10 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
         <v>850.213983755162</v>
@@ -6937,28 +6937,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1237.706702364128</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193956</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420603</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
         <v>4778.05172241972</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>855.6340846510827</v>
+        <v>1014.315798559971</v>
       </c>
       <c r="C37" t="n">
-        <v>686.6979017231758</v>
+        <v>845.379615632064</v>
       </c>
       <c r="D37" t="n">
-        <v>536.5812623108401</v>
+        <v>695.2629762197282</v>
       </c>
       <c r="E37" t="n">
-        <v>388.668168728447</v>
+        <v>547.3498826373351</v>
       </c>
       <c r="F37" t="n">
-        <v>241.7782212305366</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G37" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839441</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1910.605225198761</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1910.605225198761</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T37" t="n">
-        <v>1688.838609768287</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U37" t="n">
-        <v>1399.73574289393</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="V37" t="n">
-        <v>1145.051254688043</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="W37" t="n">
-        <v>855.6340846510827</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="X37" t="n">
-        <v>855.6340846510827</v>
+        <v>1416.756842533741</v>
       </c>
       <c r="Y37" t="n">
-        <v>855.6340846510827</v>
+        <v>1195.964263390211</v>
       </c>
     </row>
     <row r="38">
@@ -7156,10 +7156,10 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
         <v>850.213983755162</v>
@@ -7174,28 +7174,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R38" t="n">
         <v>4778.05172241972</v>
@@ -7229,34 +7229,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
         <v>794.2006632320242</v>
@@ -7271,16 +7271,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>481.6968904858347</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C40" t="n">
-        <v>481.6968904858347</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D40" t="n">
-        <v>390.3640755286979</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E40" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G40" t="n">
         <v>95.56103444839441</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U40" t="n">
-        <v>1253.788099626699</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V40" t="n">
-        <v>999.1036114208126</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W40" t="n">
-        <v>709.6864413838521</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X40" t="n">
-        <v>481.6968904858347</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y40" t="n">
-        <v>481.6968904858347</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>637.8063921226883</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="C43" t="n">
-        <v>637.8063921226883</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="D43" t="n">
-        <v>487.6897527103525</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E43" t="n">
-        <v>339.7766591279594</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1644.746393431758</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1355.643526557401</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>1336.861577887906</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W43" t="n">
-        <v>1047.444407850945</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X43" t="n">
-        <v>819.454856952928</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y43" t="n">
-        <v>819.454856952928</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="44">
@@ -7627,67 +7627,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2782.232616025903</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>3573.001456870722</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
         <v>3150.95552873011</v>
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7748,7 +7748,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7757,22 +7757,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>482.6709267727787</v>
+        <v>391.866433243363</v>
       </c>
       <c r="C46" t="n">
-        <v>482.6709267727787</v>
+        <v>391.866433243363</v>
       </c>
       <c r="D46" t="n">
-        <v>332.5542873604429</v>
+        <v>391.866433243363</v>
       </c>
       <c r="E46" t="n">
-        <v>332.5542873604429</v>
+        <v>391.866433243363</v>
       </c>
       <c r="F46" t="n">
-        <v>241.7782212305366</v>
+        <v>391.866433243363</v>
       </c>
       <c r="G46" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U46" t="n">
-        <v>1475.554715057174</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V46" t="n">
-        <v>1220.870226851287</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W46" t="n">
-        <v>931.4530568143261</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X46" t="n">
-        <v>703.4635059163088</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y46" t="n">
-        <v>482.6709267727787</v>
+        <v>391.866433243363</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8692,7 +8692,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>189.7998007892634</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8701,10 +8701,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>133.253057640027</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476853</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,22 +9163,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>89.52456338961838</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>103.7862464855135</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>295.4822118493972</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9652,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400246</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>133.2530576400246</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>29.61882225792044</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>170.1140909277297</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>246.454569480845</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>26.71535412007881</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>215.8378085450605</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270132</v>
       </c>
       <c r="C16" t="n">
-        <v>81.49819264399122</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>92.60691836965293</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23940,7 +23940,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>81.89861251746736</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>197.5657242511163</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>95.08390629318885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,22 +24651,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>234.0491927809</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>43.60786094376948</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>70.66335656800726</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>44.10768376512544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>91.00410138658458</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>105.2833318990671</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>43.65129417316373</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>58.19598621064686</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>152.1350798790564</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>58.19598621064686</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>233.5435141410277</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>55.55274255432404</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>113.7908987761682</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>791665.0628191272</v>
+        <v>791665.0628191273</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448196</v>
       </c>
       <c r="E2" t="n">
-        <v>615476.7696748236</v>
+        <v>615476.7696748242</v>
       </c>
       <c r="F2" t="n">
-        <v>615476.7696748234</v>
+        <v>615476.7696748239</v>
       </c>
       <c r="G2" t="n">
         <v>615476.7696748241</v>
       </c>
       <c r="H2" t="n">
-        <v>615476.769674824</v>
+        <v>615476.7696748241</v>
       </c>
       <c r="I2" t="n">
-        <v>615476.769674824</v>
+        <v>615476.7696748237</v>
       </c>
       <c r="J2" t="n">
-        <v>615476.7696748241</v>
+        <v>615476.7696748243</v>
       </c>
       <c r="K2" t="n">
         <v>615476.7696748241</v>
       </c>
       <c r="L2" t="n">
+        <v>615476.7696748234</v>
+      </c>
+      <c r="M2" t="n">
+        <v>615476.7696748239</v>
+      </c>
+      <c r="N2" t="n">
+        <v>615476.7696748239</v>
+      </c>
+      <c r="O2" t="n">
+        <v>615476.769674824</v>
+      </c>
+      <c r="P2" t="n">
         <v>615476.7696748242</v>
-      </c>
-      <c r="M2" t="n">
-        <v>615476.7696748244</v>
-      </c>
-      <c r="N2" t="n">
-        <v>615476.7696748236</v>
-      </c>
-      <c r="O2" t="n">
-        <v>615476.7696748243</v>
-      </c>
-      <c r="P2" t="n">
-        <v>615476.7696748235</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="C4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918996</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="G4" t="n">
         <v>18148.49231918993</v>
@@ -26441,25 +26441,25 @@
         <v>18148.49231918993</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918989</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
         <v>18148.49231918993</v>
       </c>
       <c r="M4" t="n">
+        <v>18148.49231918992</v>
+      </c>
+      <c r="N4" t="n">
+        <v>18148.49231918992</v>
+      </c>
+      <c r="O4" t="n">
         <v>18148.49231918993</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>18148.49231918993</v>
-      </c>
-      <c r="O4" t="n">
-        <v>18148.49231918994</v>
-      </c>
-      <c r="P4" t="n">
-        <v>18148.49231918994</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371364</v>
@@ -26493,10 +26493,10 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
@@ -26508,10 +26508,10 @@
         <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-219868.2724902621</v>
+        <v>-219868.2724902623</v>
       </c>
       <c r="C6" t="n">
+        <v>370099.6067242824</v>
+      </c>
+      <c r="D6" t="n">
         <v>370099.6067242823</v>
       </c>
-      <c r="D6" t="n">
-        <v>370099.6067242822</v>
-      </c>
       <c r="E6" t="n">
-        <v>-226432.6548914866</v>
+        <v>-227104.609793744</v>
       </c>
       <c r="F6" t="n">
-        <v>500944.7591019198</v>
+        <v>500272.8041996624</v>
       </c>
       <c r="G6" t="n">
-        <v>500944.7591019203</v>
+        <v>500272.8041996626</v>
       </c>
       <c r="H6" t="n">
-        <v>500944.7591019204</v>
+        <v>500272.8041996626</v>
       </c>
       <c r="I6" t="n">
-        <v>500944.7591019204</v>
+        <v>500272.8041996622</v>
       </c>
       <c r="J6" t="n">
-        <v>324521.5399093275</v>
+        <v>323849.5850070698</v>
       </c>
       <c r="K6" t="n">
-        <v>500944.7591019205</v>
+        <v>500272.8041996625</v>
       </c>
       <c r="L6" t="n">
-        <v>500944.7591019206</v>
+        <v>500272.8041996619</v>
       </c>
       <c r="M6" t="n">
-        <v>371302.4442629761</v>
+        <v>370630.4893607176</v>
       </c>
       <c r="N6" t="n">
-        <v>500944.7591019201</v>
+        <v>500272.8041996624</v>
       </c>
       <c r="O6" t="n">
-        <v>500944.7591019207</v>
+        <v>500272.8041996625</v>
       </c>
       <c r="P6" t="n">
-        <v>500944.7591019199</v>
+        <v>500272.8041996627</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>285.7800647703624</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>86.89002123756842</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>158.6704393121287</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>89.80115265030454</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>210.4649321663384</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>35.83887146663744</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>64.16285195963697</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>214.1445875477142</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>375.9469818809424</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>17.75589684223814</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28028,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>61.53161905815463</v>
+        <v>92.49591467042822</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>526.9910873446639</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>641.306058528246</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,25 +35649,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359043</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>628.4456792198451</v>
       </c>
       <c r="N17" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>440.977533040914</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>751.0723262417293</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M23" t="n">
         <v>988.4346493230593</v>
@@ -36372,7 +36372,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36609,7 +36609,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282437</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36837,7 +36837,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
@@ -36846,7 +36846,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>470.4443441954251</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>485.2089366502526</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222478</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7042053200619</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>798.7564048937564</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2665953.449864622</v>
+        <v>2669358.94098907</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836239</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095095</v>
+        <v>806345.8827095092</v>
       </c>
     </row>
     <row r="9">
@@ -667,13 +667,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>128.0041052504326</v>
+        <v>123.6965366666408</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>35.85115782931122</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>162.3364906735235</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>18.63953110817427</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>135.352867717798</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>135.1157241044941</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.440065804380572</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>5.983388191319379</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>83.85112090809197</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>59.72683757586857</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>194.0270836661628</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1387,7 +1387,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873199</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>140.531466978549</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,10 +1545,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>230.8585163465902</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.921725653453</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="15">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.75769145492406</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>73.11246331531291</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6353666620239</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2098,7 +2098,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873199</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>168.3037644100276</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,7 +2247,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>217.0914199928484</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2493,10 +2493,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>170.8065716692284</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2535,13 +2535,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>54.57191907271176</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>181.1375494785995</v>
       </c>
       <c r="V28" t="n">
-        <v>208.5297823800585</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>18.26879610204007</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3006,7 +3006,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249706</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>67.33742371513249</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>40.13771612386414</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492315</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3717,13 +3717,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>134.3879184575346</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>74.75769145492315</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>90.41948680756549</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>9.779728886660944</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>52.23490948285998</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4191,19 +4191,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1860.708406770827</v>
+        <v>1470.569074795015</v>
       </c>
       <c r="C2" t="n">
-        <v>1491.745889830415</v>
+        <v>1101.606557854603</v>
       </c>
       <c r="D2" t="n">
-        <v>1133.480191223665</v>
+        <v>743.3408592478529</v>
       </c>
       <c r="E2" t="n">
-        <v>747.6919386254203</v>
+        <v>743.3408592478529</v>
       </c>
       <c r="F2" t="n">
-        <v>336.7060338358128</v>
+        <v>332.3549544582453</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4375,7 +4375,7 @@
         <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>2247.308246834948</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="3">
@@ -4412,28 +4412,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>477.6272702879189</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>477.6272702879189</v>
       </c>
       <c r="V4" t="n">
-        <v>564.1527310008552</v>
+        <v>222.942782082032</v>
       </c>
       <c r="W4" t="n">
-        <v>274.7355609638946</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2149.375138862102</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2678.321281818046</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2502.143794132216</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2502.143794132216</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2502.143794132216</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2502.143794132216</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2149.375138862102</v>
+        <v>2505.400333146899</v>
       </c>
       <c r="X5" t="n">
-        <v>2149.375138862102</v>
+        <v>2131.93457488582</v>
       </c>
       <c r="Y5" t="n">
-        <v>2149.375138862102</v>
+        <v>2131.93457488582</v>
       </c>
     </row>
     <row r="6">
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>541.9956044222747</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="C7" t="n">
-        <v>373.0594214943678</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E7" t="n">
         <v>222.942782082032</v>
@@ -4767,10 +4767,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>591.6484548079553</v>
       </c>
       <c r="Y7" t="n">
-        <v>723.6440692525144</v>
+        <v>370.8558756644252</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.0839286340174</v>
+        <v>159.5099885583426</v>
       </c>
       <c r="C8" t="n">
-        <v>439.1214116936057</v>
+        <v>159.5099885583426</v>
       </c>
       <c r="D8" t="n">
-        <v>80.85571308685519</v>
+        <v>159.5099885583426</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>159.5099885583426</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>152.5644878091392</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>138.6410837477301</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>138.6410837477301</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698139</v>
+        <v>546.1098286224644</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W10" t="n">
-        <v>502.7251118619119</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>806.1613418786371</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1670.680157531992</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2649.23046036182</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420603</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390118</v>
@@ -5153,7 +5153,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.4617675965557</v>
+        <v>508.5026418377232</v>
       </c>
       <c r="C13" t="n">
-        <v>707.5107908505465</v>
+        <v>508.5026418377232</v>
       </c>
       <c r="D13" t="n">
-        <v>557.3941514382108</v>
+        <v>508.5026418377232</v>
       </c>
       <c r="E13" t="n">
-        <v>409.4810578558177</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F13" t="n">
-        <v>409.4810578558177</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5232,19 +5232,19 @@
         <v>1734.57685067423</v>
       </c>
       <c r="U13" t="n">
-        <v>1734.57685067423</v>
+        <v>1501.386430122118</v>
       </c>
       <c r="V13" t="n">
-        <v>1479.892362468343</v>
+        <v>1246.701941916231</v>
       </c>
       <c r="W13" t="n">
-        <v>1479.892362468343</v>
+        <v>957.2847718792707</v>
       </c>
       <c r="X13" t="n">
-        <v>1251.902811570325</v>
+        <v>729.2952209812534</v>
       </c>
       <c r="Y13" t="n">
-        <v>1031.110232426795</v>
+        <v>508.5026418377232</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5275,55 +5275,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
@@ -5390,7 +5390,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839441</v>
+        <v>675.7429179653792</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5469,19 +5469,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783409</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413803</v>
+        <v>1124.525048006927</v>
       </c>
       <c r="X16" t="n">
-        <v>391.866433243363</v>
+        <v>896.5354971089093</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.0738540998329</v>
+        <v>675.7429179653792</v>
       </c>
     </row>
     <row r="17">
@@ -5506,13 +5506,13 @@
         <v>850.2139837551613</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
         <v>451.8458144277729</v>
@@ -5524,22 +5524,22 @@
         <v>1971.087962216427</v>
       </c>
       <c r="M17" t="n">
-        <v>2593.249184644074</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N17" t="n">
-        <v>3573.001456870721</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O17" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
         <v>4667.761053946815</v>
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
@@ -5627,7 +5627,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5697,22 +5697,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
         <v>498.0020784221642</v>
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1682.725100522031</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193956</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420603</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4338.827767043611</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D21" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F21" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089896</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468573</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5864,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>562.5269503710301</v>
+        <v>511.9395339702917</v>
       </c>
       <c r="C22" t="n">
-        <v>393.5907674431232</v>
+        <v>343.0033510423848</v>
       </c>
       <c r="D22" t="n">
-        <v>243.4741280307875</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U22" t="n">
-        <v>1737.059203485665</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V22" t="n">
-        <v>1482.374715279778</v>
+        <v>1420.142636483171</v>
       </c>
       <c r="W22" t="n">
-        <v>1192.957545242817</v>
+        <v>1130.72546644621</v>
       </c>
       <c r="X22" t="n">
-        <v>964.9679943448</v>
+        <v>902.7359155481931</v>
       </c>
       <c r="Y22" t="n">
-        <v>744.1754152012699</v>
+        <v>681.943336404663</v>
       </c>
     </row>
     <row r="23">
@@ -5986,31 +5986,31 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193956</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420603</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
@@ -6065,13 +6065,13 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
         <v>794.2006632320242</v>
@@ -6086,22 +6086,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C25" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D25" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E25" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1693.981118287254</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1472.21450285678</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="V25" t="n">
-        <v>1198.664949048203</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W25" t="n">
-        <v>909.2477790112422</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X25" t="n">
-        <v>909.2477790112422</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y25" t="n">
-        <v>688.4551998677121</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
         <v>850.213983755162</v>
@@ -6226,52 +6226,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>825.859557377715</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>656.9233744498081</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1956.343466104704</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>1745.707322286463</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>1456.290152249502</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>1228.300601351485</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1007.508022207955</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6518,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
         <v>487.9678785494859</v>
@@ -6533,7 +6533,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
         <v>95.56103444839442</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1937.890136708704</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1746.20425253553</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1524.437637105056</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1235.3347702307</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>980.6502820248129</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>691.2331119878522</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>463.2435610898349</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>242.4509819463048</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6679,49 +6679,49 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L32" t="n">
-        <v>1586.925993846823</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2120.457898518747</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N32" t="n">
-        <v>2667.23671557753</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O32" t="n">
-        <v>3547.201365906984</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
         <v>4778.05172241972</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6858,10 +6858,10 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T34" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W34" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X34" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143013</v>
@@ -6925,43 +6925,43 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L35" t="n">
-        <v>1898.858917622687</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M35" t="n">
-        <v>2432.390822294612</v>
+        <v>1999.417367126749</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353394</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
         <v>4667.761053946815</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="36">
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1014.315798559971</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="C37" t="n">
-        <v>845.379615632064</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="D37" t="n">
-        <v>695.2629762197282</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E37" t="n">
-        <v>547.3498826373351</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F37" t="n">
-        <v>506.8067350374723</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H37" t="n">
-        <v>192.886711630049</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S37" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T37" t="n">
-        <v>1644.746393431758</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1644.746393431758</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>1644.746393431758</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W37" t="n">
-        <v>1644.746393431758</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X37" t="n">
-        <v>1416.756842533741</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y37" t="n">
-        <v>1195.964263390211</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7171,55 +7171,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1898.858917622687</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2432.390822294612</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N38" t="n">
-        <v>2979.169639353394</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>432.2000540015823</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U40" t="n">
-        <v>1453.060509258584</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V40" t="n">
-        <v>1198.376021052697</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W40" t="n">
-        <v>1062.630648873369</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X40" t="n">
-        <v>834.6410979753522</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y40" t="n">
-        <v>613.848518831822</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="41">
@@ -7390,73 +7390,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364129</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>481.6968904858347</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>481.6968904858347</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U43" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V43" t="n">
-        <v>999.1036114208126</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W43" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X43" t="n">
-        <v>481.6968904858347</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y43" t="n">
-        <v>481.6968904858347</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>391.866433243363</v>
+        <v>567.9454261809092</v>
       </c>
       <c r="C46" t="n">
-        <v>391.866433243363</v>
+        <v>567.9454261809092</v>
       </c>
       <c r="D46" t="n">
-        <v>391.866433243363</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E46" t="n">
-        <v>391.866433243363</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F46" t="n">
-        <v>391.866433243363</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L46" t="n">
         <v>661.2306482927024</v>
@@ -7821,37 +7821,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P46" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U46" t="n">
-        <v>1163.957642384228</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="V46" t="n">
-        <v>909.2731541783409</v>
+        <v>1198.376021052696</v>
       </c>
       <c r="W46" t="n">
-        <v>619.8559841413803</v>
+        <v>1198.376021052696</v>
       </c>
       <c r="X46" t="n">
-        <v>391.866433243363</v>
+        <v>970.386470154679</v>
       </c>
       <c r="Y46" t="n">
-        <v>391.866433243363</v>
+        <v>749.5938910111489</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>189.7998007892634</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9172,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>89.52456338961838</v>
+        <v>89.52456338961929</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9403,28 +9403,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>295.4822118493972</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>67.53663776704306</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>170.1140909277297</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>29.61882225792044</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476844</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,16 +10588,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>344.7025836476828</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>231.5010718068654</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>344.7025836476828</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>170.1140909277313</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>170.1140909277305</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>26.71535412007881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>55.35332185902263</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270132</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>213.4105350212781</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>11.52821577190969</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>69.12041821276446</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.96245366221348</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>197.5657242511163</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="V28" t="n">
-        <v>43.60786094376948</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>70.66335656800726</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>16.14213605696668</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>112.4945564668048</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>105.2833318990671</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>105.0742887270141</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>152.1350798790564</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270141</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>58.19598621064686</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>138.8357441315514</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>113.7908987761682</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>791665.0628191273</v>
+        <v>791665.0628191272</v>
       </c>
     </row>
     <row r="14">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448197</v>
+      </c>
+      <c r="C2" t="n">
         <v>636307.3716448196</v>
       </c>
-      <c r="C2" t="n">
-        <v>636307.3716448199</v>
-      </c>
       <c r="D2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
-        <v>615476.7696748242</v>
+        <v>615476.769674824</v>
       </c>
       <c r="F2" t="n">
         <v>615476.7696748239</v>
@@ -26331,31 +26331,31 @@
         <v>615476.7696748241</v>
       </c>
       <c r="H2" t="n">
-        <v>615476.7696748241</v>
+        <v>615476.7696748236</v>
       </c>
       <c r="I2" t="n">
+        <v>615476.769674824</v>
+      </c>
+      <c r="J2" t="n">
+        <v>615476.7696748239</v>
+      </c>
+      <c r="K2" t="n">
+        <v>615476.7696748242</v>
+      </c>
+      <c r="L2" t="n">
         <v>615476.7696748237</v>
       </c>
-      <c r="J2" t="n">
-        <v>615476.7696748243</v>
-      </c>
-      <c r="K2" t="n">
-        <v>615476.7696748241</v>
-      </c>
-      <c r="L2" t="n">
-        <v>615476.7696748234</v>
-      </c>
       <c r="M2" t="n">
-        <v>615476.7696748239</v>
+        <v>615476.7696748237</v>
       </c>
       <c r="N2" t="n">
         <v>615476.7696748239</v>
       </c>
       <c r="O2" t="n">
-        <v>615476.769674824</v>
+        <v>615476.7696748239</v>
       </c>
       <c r="P2" t="n">
-        <v>615476.7696748242</v>
+        <v>615476.7696748239</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918989</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="I4" t="n">
         <v>18148.49231918993</v>
@@ -26447,19 +26447,19 @@
         <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="M4" t="n">
-        <v>18148.49231918992</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="N4" t="n">
-        <v>18148.49231918992</v>
+        <v>18148.49231918996</v>
       </c>
       <c r="O4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="P4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
     </row>
     <row r="5">
@@ -26475,22 +26475,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-219868.2724902623</v>
+        <v>-219868.2724902621</v>
       </c>
       <c r="C6" t="n">
-        <v>370099.6067242824</v>
+        <v>370099.6067242823</v>
       </c>
       <c r="D6" t="n">
-        <v>370099.6067242823</v>
+        <v>370099.6067242821</v>
       </c>
       <c r="E6" t="n">
-        <v>-227104.609793744</v>
+        <v>-226499.850381712</v>
       </c>
       <c r="F6" t="n">
-        <v>500272.8041996624</v>
+        <v>500877.5636116944</v>
       </c>
       <c r="G6" t="n">
-        <v>500272.8041996626</v>
+        <v>500877.5636116947</v>
       </c>
       <c r="H6" t="n">
-        <v>500272.8041996626</v>
+        <v>500877.5636116942</v>
       </c>
       <c r="I6" t="n">
-        <v>500272.8041996622</v>
+        <v>500877.5636116946</v>
       </c>
       <c r="J6" t="n">
-        <v>323849.5850070698</v>
+        <v>324454.3444191016</v>
       </c>
       <c r="K6" t="n">
-        <v>500272.8041996625</v>
+        <v>500877.5636116948</v>
       </c>
       <c r="L6" t="n">
-        <v>500272.8041996619</v>
+        <v>500877.5636116944</v>
       </c>
       <c r="M6" t="n">
-        <v>370630.4893607176</v>
+        <v>371235.2487727496</v>
       </c>
       <c r="N6" t="n">
-        <v>500272.8041996624</v>
+        <v>500877.5636116945</v>
       </c>
       <c r="O6" t="n">
-        <v>500272.8041996625</v>
+        <v>500877.5636116945</v>
       </c>
       <c r="P6" t="n">
-        <v>500272.8041996627</v>
+        <v>500877.5636116945</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,13 +27387,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>285.7800647703624</v>
+        <v>290.0876333541541</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>189.1839476287731</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>89.80115265030454</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>35.83887146663744</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>213.888100999615</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>90.59393128454306</v>
       </c>
       <c r="Y7" t="n">
-        <v>214.1445875477142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>375.9469818809424</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>68.08019533676928</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28067,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>226.5550366661092</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>92.49591467042822</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>526.9910873446639</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>588.5891319493445</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
@@ -35661,7 +35661,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
@@ -35892,7 +35892,7 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>628.4456792198451</v>
+        <v>628.4456792198461</v>
       </c>
       <c r="N17" t="n">
         <v>989.6487598248956</v>
@@ -36123,28 +36123,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>751.0723262417293</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>318.3309425707625</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7042053200619</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>743.6379293484354</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>485.2089366502526</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359034</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,25 +37308,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>800.292698040015</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>770.422187637092</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>800.292698040015</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200632</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O41" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200624</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O44" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
